--- a/Web/db_data/compartments.xlsx
+++ b/Web/db_data/compartments.xlsx
@@ -92,7 +92,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -100,8 +100,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -351,3457 +354,3457 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3">
-        <v>1.0</v>
+        <v>101.0</v>
       </c>
       <c r="B2" s="4">
         <f t="shared" ref="B2:B65" si="1">SUM(D2/3)</f>
         <v>66.66666667</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <f t="shared" ref="C2:C65" si="2">SUM(D2*0.8)</f>
         <v>160</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>200.0</v>
       </c>
-      <c r="E2" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="E2" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3">
-        <v>2.0</v>
+        <v>102.0</v>
       </c>
       <c r="B3" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>300.0</v>
       </c>
-      <c r="E3" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E3" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="3">
-        <v>3.0</v>
+        <v>103.0</v>
       </c>
       <c r="B4" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>400.0</v>
       </c>
-      <c r="E4" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="E4" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="3">
-        <v>4.0</v>
+        <v>104.0</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>500.0</v>
       </c>
-      <c r="E5" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="E5" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
         <v>778804.0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="3">
-        <v>5.0</v>
+        <v>105.0</v>
       </c>
       <c r="B6" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>600.0</v>
       </c>
-      <c r="E6" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E6" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5">
         <v>778805.0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="3">
-        <v>6.0</v>
+        <v>106.0</v>
       </c>
       <c r="B7" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>200.0</v>
       </c>
-      <c r="E7" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="E7" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
         <v>778806.0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="3">
-        <v>7.0</v>
+        <v>107.0</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>300.0</v>
       </c>
-      <c r="E8" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="E8" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
         <v>778807.0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="3">
-        <v>8.0</v>
+        <v>108.0</v>
       </c>
       <c r="B9" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>400.0</v>
       </c>
-      <c r="E9" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="E9" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5">
         <v>778808.0</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="3">
-        <v>9.0</v>
+        <v>109.0</v>
       </c>
       <c r="B10" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>500.0</v>
       </c>
-      <c r="E10" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="E10" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5">
         <v>778809.0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="3">
-        <v>10.0</v>
+        <v>110.0</v>
       </c>
       <c r="B11" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>600.0</v>
       </c>
-      <c r="E11" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="E11" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5">
         <v>778810.0</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="3">
-        <v>11.0</v>
+        <v>111.0</v>
       </c>
       <c r="B12" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>200.0</v>
       </c>
-      <c r="E12" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="E12" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="5">
         <v>778811.0</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3">
-        <v>12.0</v>
+        <v>112.0</v>
       </c>
       <c r="B13" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>300.0</v>
       </c>
-      <c r="E13" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="E13" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="5">
         <v>778812.0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="3">
-        <v>13.0</v>
+        <v>113.0</v>
       </c>
       <c r="B14" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>400.0</v>
       </c>
-      <c r="E14" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="E14" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5">
         <v>778813.0</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="3">
-        <v>14.0</v>
+        <v>114.0</v>
       </c>
       <c r="B15" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>500.0</v>
       </c>
-      <c r="E15" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="E15" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="3">
-        <v>15.0</v>
+        <v>115.0</v>
       </c>
       <c r="B16" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>600.0</v>
       </c>
-      <c r="E16" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="E16" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="3">
-        <v>16.0</v>
+        <v>116.0</v>
       </c>
       <c r="B17" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>200.0</v>
       </c>
-      <c r="E17" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="E17" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="3">
-        <v>17.0</v>
+        <v>117.0</v>
       </c>
       <c r="B18" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>200.0</v>
       </c>
-      <c r="E18" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="E18" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="3">
-        <v>18.0</v>
+        <v>118.0</v>
       </c>
       <c r="B19" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>300.0</v>
       </c>
-      <c r="E19" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="E19" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="3">
-        <v>19.0</v>
+        <v>119.0</v>
       </c>
       <c r="B20" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>400.0</v>
       </c>
-      <c r="E20" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="E20" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="3">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="B21" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>500.0</v>
       </c>
-      <c r="E21" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="E21" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="5">
         <v>778804.0</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="3">
-        <v>21.0</v>
+        <v>121.0</v>
       </c>
       <c r="B22" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="5">
         <v>600.0</v>
       </c>
-      <c r="E22" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="E22" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="5">
         <v>778805.0</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="3">
-        <v>22.0</v>
+        <v>122.0</v>
       </c>
       <c r="B23" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="5">
         <v>200.0</v>
       </c>
-      <c r="E23" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="E23" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="5">
         <v>778806.0</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="3">
-        <v>23.0</v>
+        <v>123.0</v>
       </c>
       <c r="B24" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="5">
         <v>300.0</v>
       </c>
-      <c r="E24" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="E24" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
         <v>778807.0</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="3">
-        <v>24.0</v>
+        <v>124.0</v>
       </c>
       <c r="B25" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="5">
         <v>400.0</v>
       </c>
-      <c r="E25" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="E25" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="5">
         <v>778808.0</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="3">
-        <v>25.0</v>
+        <v>125.0</v>
       </c>
       <c r="B26" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="5">
         <v>500.0</v>
       </c>
-      <c r="E26" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="E26" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="5">
         <v>778809.0</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="3">
-        <v>26.0</v>
+        <v>126.0</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="5">
         <v>600.0</v>
       </c>
-      <c r="E27" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="E27" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="5">
         <v>778810.0</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="3">
-        <v>27.0</v>
+        <v>127.0</v>
       </c>
       <c r="B28" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="5">
         <v>200.0</v>
       </c>
-      <c r="E28" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="E28" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="5">
         <v>778811.0</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3">
-        <v>28.0</v>
+        <v>128.0</v>
       </c>
       <c r="B29" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="5">
         <v>300.0</v>
       </c>
-      <c r="E29" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="E29" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="5">
         <v>778812.0</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3">
-        <v>29.0</v>
+        <v>129.0</v>
       </c>
       <c r="B30" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="5">
         <v>400.0</v>
       </c>
-      <c r="E30" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="E30" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="5">
         <v>778813.0</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3">
-        <v>30.0</v>
+        <v>130.0</v>
       </c>
       <c r="B31" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="5">
         <v>500.0</v>
       </c>
-      <c r="E31" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="E31" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3">
-        <v>31.0</v>
+        <v>131.0</v>
       </c>
       <c r="B32" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="5">
         <v>600.0</v>
       </c>
-      <c r="E32" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="E32" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3">
-        <v>32.0</v>
+        <v>132.0</v>
       </c>
       <c r="B33" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="5">
         <v>200.0</v>
       </c>
-      <c r="E33" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="E33" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="5">
         <v>1.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3">
-        <v>33.0</v>
+        <v>133.0</v>
       </c>
       <c r="B34" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="5">
         <v>200.0</v>
       </c>
-      <c r="E34" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="E34" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="3">
-        <v>34.0</v>
+        <v>134.0</v>
       </c>
       <c r="B35" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="5">
         <v>300.0</v>
       </c>
-      <c r="E35" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="E35" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="3">
-        <v>35.0</v>
+        <v>135.0</v>
       </c>
       <c r="B36" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="5">
         <v>400.0</v>
       </c>
-      <c r="E36" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="E36" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="3">
-        <v>36.0</v>
+        <v>136.0</v>
       </c>
       <c r="B37" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="5">
         <v>500.0</v>
       </c>
-      <c r="E37" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="E37" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="5">
         <v>778804.0</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="3">
-        <v>37.0</v>
+        <v>137.0</v>
       </c>
       <c r="B38" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="5">
         <v>600.0</v>
       </c>
-      <c r="E38" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="3">
+      <c r="E38" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="5">
         <v>778805.0</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="3">
-        <v>38.0</v>
+        <v>138.0</v>
       </c>
       <c r="B39" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="5">
         <v>200.0</v>
       </c>
-      <c r="E39" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="E39" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="5">
         <v>778806.0</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H39" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="3">
-        <v>39.0</v>
+        <v>139.0</v>
       </c>
       <c r="B40" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="5">
         <v>300.0</v>
       </c>
-      <c r="E40" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="E40" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5">
         <v>778807.0</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3">
-        <v>40.0</v>
+        <v>140.0</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="5">
         <v>400.0</v>
       </c>
-      <c r="E41" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="E41" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="5">
         <v>778808.0</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="3">
-        <v>41.0</v>
+        <v>141.0</v>
       </c>
       <c r="B42" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="5">
         <v>500.0</v>
       </c>
-      <c r="E42" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="E42" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="5">
         <v>778809.0</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3">
-        <v>42.0</v>
+        <v>142.0</v>
       </c>
       <c r="B43" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="5">
         <v>600.0</v>
       </c>
-      <c r="E43" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="E43" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="5">
         <v>778810.0</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3">
-        <v>43.0</v>
+        <v>143.0</v>
       </c>
       <c r="B44" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="5">
         <v>200.0</v>
       </c>
-      <c r="E44" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="E44" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="5">
         <v>778811.0</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H44" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3">
-        <v>44.0</v>
+        <v>144.0</v>
       </c>
       <c r="B45" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="5">
         <v>300.0</v>
       </c>
-      <c r="E45" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="E45" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="5">
         <v>778812.0</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H45" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="3">
-        <v>45.0</v>
+        <v>145.0</v>
       </c>
       <c r="B46" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="5">
         <v>400.0</v>
       </c>
-      <c r="E46" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="E46" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="5">
         <v>778813.0</v>
       </c>
-      <c r="H46" s="3">
+      <c r="H46" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3">
-        <v>46.0</v>
+        <v>146.0</v>
       </c>
       <c r="B47" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="5">
         <v>500.0</v>
       </c>
-      <c r="E47" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="E47" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="3">
-        <v>47.0</v>
+        <v>147.0</v>
       </c>
       <c r="B48" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="5">
         <v>600.0</v>
       </c>
-      <c r="E48" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="E48" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="3">
-        <v>48.0</v>
+        <v>148.0</v>
       </c>
       <c r="B49" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="5">
         <v>200.0</v>
       </c>
-      <c r="E49" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="E49" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H49" s="3">
+      <c r="H49" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="3">
-        <v>49.0</v>
+        <v>149.0</v>
       </c>
       <c r="B50" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="5">
         <v>200.0</v>
       </c>
-      <c r="E50" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="E50" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H50" s="3">
+      <c r="H50" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="3">
-        <v>50.0</v>
+        <v>150.0</v>
       </c>
       <c r="B51" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="5">
         <v>300.0</v>
       </c>
-      <c r="E51" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="E51" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H51" s="3">
+      <c r="H51" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="3">
-        <v>51.0</v>
+        <v>151.0</v>
       </c>
       <c r="B52" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="5">
         <v>400.0</v>
       </c>
-      <c r="E52" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="E52" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="3">
-        <v>52.0</v>
+        <v>152.0</v>
       </c>
       <c r="B53" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="5">
         <v>500.0</v>
       </c>
-      <c r="E53" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="E53" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="5">
         <v>778804.0</v>
       </c>
-      <c r="H53" s="3">
+      <c r="H53" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="3">
-        <v>53.0</v>
+        <v>153.0</v>
       </c>
       <c r="B54" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="5">
         <v>600.0</v>
       </c>
-      <c r="E54" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="E54" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="5">
         <v>778805.0</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="3">
-        <v>54.0</v>
+        <v>154.0</v>
       </c>
       <c r="B55" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="5">
         <v>200.0</v>
       </c>
-      <c r="E55" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="3">
+      <c r="E55" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="5">
         <v>778806.0</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="3">
-        <v>55.0</v>
+        <v>155.0</v>
       </c>
       <c r="B56" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="5">
         <v>300.0</v>
       </c>
-      <c r="E56" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="E56" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="5">
         <v>778807.0</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="3">
-        <v>56.0</v>
+        <v>156.0</v>
       </c>
       <c r="B57" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="5">
         <v>400.0</v>
       </c>
-      <c r="E57" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="E57" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="5">
         <v>778808.0</v>
       </c>
-      <c r="H57" s="3">
+      <c r="H57" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="3">
-        <v>57.0</v>
+        <v>157.0</v>
       </c>
       <c r="B58" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="5">
         <v>500.0</v>
       </c>
-      <c r="E58" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="E58" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="5">
         <v>778809.0</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="3">
-        <v>58.0</v>
+        <v>158.0</v>
       </c>
       <c r="B59" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="5">
         <v>600.0</v>
       </c>
-      <c r="E59" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="E59" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="5">
         <v>778810.0</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="3">
-        <v>59.0</v>
+        <v>159.0</v>
       </c>
       <c r="B60" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="5">
         <v>200.0</v>
       </c>
-      <c r="E60" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="E60" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="5">
         <v>778811.0</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="3">
-        <v>60.0</v>
+        <v>160.0</v>
       </c>
       <c r="B61" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="5">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="5">
         <v>300.0</v>
       </c>
-      <c r="E61" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="E61" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="5">
         <v>778812.0</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="3">
-        <v>61.0</v>
+        <v>161.0</v>
       </c>
       <c r="B62" s="4">
         <f t="shared" si="1"/>
         <v>133.3333333</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="5">
         <f t="shared" si="2"/>
         <v>320</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="5">
         <v>400.0</v>
       </c>
-      <c r="E62" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="E62" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5">
         <v>778813.0</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="3">
-        <v>62.0</v>
+        <v>162.0</v>
       </c>
       <c r="B63" s="4">
         <f t="shared" si="1"/>
         <v>166.6666667</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="5">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="5">
         <v>500.0</v>
       </c>
-      <c r="E63" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="3">
+      <c r="E63" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5">
         <v>778801.0</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="3">
-        <v>63.0</v>
+        <v>163.0</v>
       </c>
       <c r="B64" s="4">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="5">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="5">
         <v>600.0</v>
       </c>
-      <c r="E64" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="E64" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="5">
         <v>778802.0</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="3">
-        <v>64.0</v>
+        <v>164.0</v>
       </c>
       <c r="B65" s="4">
         <f t="shared" si="1"/>
         <v>66.66666667</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65" s="5">
         <v>200.0</v>
       </c>
-      <c r="E65" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="E65" s="5">
+        <v>100.0</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="5">
         <v>778803.0</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="3">
-        <v>65.0</v>
-      </c>
-      <c r="B66" s="5">
+        <v>165.0</v>
+      </c>
+      <c r="B66" s="6">
         <v>67.0</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="7">
         <v>160.0</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="7">
         <v>200.0</v>
       </c>
-      <c r="E66" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="6">
+      <c r="E66" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="3">
-        <v>66.0</v>
-      </c>
-      <c r="B67" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C67" s="6">
+        <v>166.0</v>
+      </c>
+      <c r="B67" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C67" s="7">
         <v>240.0</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="7">
         <v>300.0</v>
       </c>
-      <c r="E67" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="6">
+      <c r="E67" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H67" s="6">
+      <c r="H67" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="3">
-        <v>67.0</v>
-      </c>
-      <c r="B68" s="5">
+        <v>167.0</v>
+      </c>
+      <c r="B68" s="6">
         <v>133.0</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="7">
         <v>320.0</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="7">
         <v>400.0</v>
       </c>
-      <c r="E68" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="6">
+      <c r="E68" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="3">
-        <v>68.0</v>
-      </c>
-      <c r="B69" s="5">
+        <v>168.0</v>
+      </c>
+      <c r="B69" s="6">
         <v>167.0</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="7">
         <v>400.0</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="7">
         <v>500.0</v>
       </c>
-      <c r="E69" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="6">
+      <c r="E69" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="7">
         <v>778804.0</v>
       </c>
-      <c r="H69" s="6">
+      <c r="H69" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="3">
-        <v>69.0</v>
-      </c>
-      <c r="B70" s="5">
+        <v>169.0</v>
+      </c>
+      <c r="B70" s="6">
         <v>200.0</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="7">
         <v>480.0</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="7">
         <v>600.0</v>
       </c>
-      <c r="E70" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="6">
+      <c r="E70" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="7">
         <v>778805.0</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="3">
-        <v>70.0</v>
-      </c>
-      <c r="B71" s="5">
+        <v>170.0</v>
+      </c>
+      <c r="B71" s="6">
         <v>67.0</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="7">
         <v>160.0</v>
       </c>
-      <c r="D71" s="6">
+      <c r="D71" s="7">
         <v>200.0</v>
       </c>
-      <c r="E71" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="E71" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="7">
         <v>778806.0</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="3">
-        <v>71.0</v>
-      </c>
-      <c r="B72" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C72" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="B72" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C72" s="7">
         <v>240.0</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="7">
         <v>300.0</v>
       </c>
-      <c r="E72" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="6">
+      <c r="E72" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="7">
         <v>778807.0</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="3">
-        <v>72.0</v>
-      </c>
-      <c r="B73" s="5">
+        <v>172.0</v>
+      </c>
+      <c r="B73" s="6">
         <v>133.0</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="7">
         <v>320.0</v>
       </c>
-      <c r="D73" s="6">
+      <c r="D73" s="7">
         <v>400.0</v>
       </c>
-      <c r="E73" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="6">
+      <c r="E73" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G73" s="7">
         <v>778808.0</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="3">
-        <v>73.0</v>
-      </c>
-      <c r="B74" s="5">
+        <v>173.0</v>
+      </c>
+      <c r="B74" s="6">
         <v>167.0</v>
       </c>
-      <c r="C74" s="6">
+      <c r="C74" s="7">
         <v>400.0</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="7">
         <v>500.0</v>
       </c>
-      <c r="E74" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="6">
+      <c r="E74" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="7">
         <v>778809.0</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="3">
-        <v>74.0</v>
-      </c>
-      <c r="B75" s="5">
+        <v>174.0</v>
+      </c>
+      <c r="B75" s="6">
         <v>200.0</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C75" s="7">
         <v>480.0</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="7">
         <v>600.0</v>
       </c>
-      <c r="E75" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="6">
+      <c r="E75" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G75" s="7">
         <v>778810.0</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="3">
-        <v>75.0</v>
-      </c>
-      <c r="B76" s="5">
+        <v>175.0</v>
+      </c>
+      <c r="B76" s="6">
         <v>67.0</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C76" s="7">
         <v>160.0</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="7">
         <v>200.0</v>
       </c>
-      <c r="E76" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="6">
+      <c r="E76" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="7">
         <v>778811.0</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="3">
-        <v>76.0</v>
-      </c>
-      <c r="B77" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C77" s="6">
+        <v>176.0</v>
+      </c>
+      <c r="B77" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C77" s="7">
         <v>240.0</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="7">
         <v>300.0</v>
       </c>
-      <c r="E77" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="6">
+      <c r="E77" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="7">
         <v>778812.0</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="3">
-        <v>77.0</v>
-      </c>
-      <c r="B78" s="5">
+        <v>177.0</v>
+      </c>
+      <c r="B78" s="6">
         <v>133.0</v>
       </c>
-      <c r="C78" s="6">
+      <c r="C78" s="7">
         <v>320.0</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="7">
         <v>400.0</v>
       </c>
-      <c r="E78" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="6">
+      <c r="E78" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="7">
         <v>778813.0</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="3">
-        <v>78.0</v>
-      </c>
-      <c r="B79" s="5">
+        <v>178.0</v>
+      </c>
+      <c r="B79" s="6">
         <v>167.0</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C79" s="7">
         <v>400.0</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="7">
         <v>500.0</v>
       </c>
-      <c r="E79" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="6">
+      <c r="E79" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="3">
-        <v>79.0</v>
-      </c>
-      <c r="B80" s="5">
+        <v>179.0</v>
+      </c>
+      <c r="B80" s="6">
         <v>200.0</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C80" s="7">
         <v>480.0</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="7">
         <v>600.0</v>
       </c>
-      <c r="E80" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F80" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="6">
+      <c r="E80" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="3">
-        <v>80.0</v>
-      </c>
-      <c r="B81" s="5">
+        <v>180.0</v>
+      </c>
+      <c r="B81" s="6">
         <v>67.0</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="7">
         <v>160.0</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="7">
         <v>200.0</v>
       </c>
-      <c r="E81" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F81" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="6">
+      <c r="E81" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H81" s="6">
+      <c r="H81" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="3">
-        <v>81.0</v>
-      </c>
-      <c r="B82" s="5">
+        <v>181.0</v>
+      </c>
+      <c r="B82" s="6">
         <v>67.0</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="7">
         <v>160.0</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="7">
         <v>200.0</v>
       </c>
-      <c r="E82" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="6">
+      <c r="E82" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H82" s="6">
+      <c r="H82" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="3">
-        <v>82.0</v>
-      </c>
-      <c r="B83" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C83" s="6">
+        <v>182.0</v>
+      </c>
+      <c r="B83" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C83" s="7">
         <v>240.0</v>
       </c>
-      <c r="D83" s="6">
+      <c r="D83" s="7">
         <v>300.0</v>
       </c>
-      <c r="E83" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="6">
+      <c r="E83" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H83" s="6">
+      <c r="H83" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="3">
-        <v>83.0</v>
-      </c>
-      <c r="B84" s="5">
+        <v>183.0</v>
+      </c>
+      <c r="B84" s="6">
         <v>133.0</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="7">
         <v>320.0</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="7">
         <v>400.0</v>
       </c>
-      <c r="E84" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="6">
+      <c r="E84" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="3">
-        <v>84.0</v>
-      </c>
-      <c r="B85" s="5">
+        <v>184.0</v>
+      </c>
+      <c r="B85" s="6">
         <v>167.0</v>
       </c>
-      <c r="C85" s="6">
+      <c r="C85" s="7">
         <v>400.0</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="7">
         <v>500.0</v>
       </c>
-      <c r="E85" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="6">
+      <c r="E85" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="7">
         <v>778804.0</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="3">
-        <v>85.0</v>
-      </c>
-      <c r="B86" s="5">
+        <v>185.0</v>
+      </c>
+      <c r="B86" s="6">
         <v>200.0</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="7">
         <v>480.0</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="7">
         <v>600.0</v>
       </c>
-      <c r="E86" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F86" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="6">
+      <c r="E86" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="7">
         <v>778805.0</v>
       </c>
-      <c r="H86" s="6">
+      <c r="H86" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="3">
-        <v>86.0</v>
-      </c>
-      <c r="B87" s="5">
+        <v>186.0</v>
+      </c>
+      <c r="B87" s="6">
         <v>67.0</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="7">
         <v>160.0</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="7">
         <v>200.0</v>
       </c>
-      <c r="E87" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F87" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" s="6">
+      <c r="E87" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="7">
         <v>778806.0</v>
       </c>
-      <c r="H87" s="6">
+      <c r="H87" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="3">
-        <v>87.0</v>
-      </c>
-      <c r="B88" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C88" s="6">
+        <v>187.0</v>
+      </c>
+      <c r="B88" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C88" s="7">
         <v>240.0</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="7">
         <v>300.0</v>
       </c>
-      <c r="E88" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" s="6">
+      <c r="E88" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="7">
         <v>778807.0</v>
       </c>
-      <c r="H88" s="6">
+      <c r="H88" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="3">
-        <v>88.0</v>
-      </c>
-      <c r="B89" s="5">
+        <v>188.0</v>
+      </c>
+      <c r="B89" s="6">
         <v>133.0</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="7">
         <v>320.0</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="7">
         <v>400.0</v>
       </c>
-      <c r="E89" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="6">
+      <c r="E89" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="7">
         <v>778808.0</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H89" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="3">
-        <v>89.0</v>
-      </c>
-      <c r="B90" s="5">
+        <v>189.0</v>
+      </c>
+      <c r="B90" s="6">
         <v>167.0</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="7">
         <v>400.0</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="7">
         <v>500.0</v>
       </c>
-      <c r="E90" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="6">
+      <c r="E90" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="7">
         <v>778809.0</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H90" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="3">
-        <v>90.0</v>
-      </c>
-      <c r="B91" s="5">
+        <v>190.0</v>
+      </c>
+      <c r="B91" s="6">
         <v>200.0</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="7">
         <v>480.0</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="7">
         <v>600.0</v>
       </c>
-      <c r="E91" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="6">
+      <c r="E91" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="7">
         <v>778810.0</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="3">
-        <v>91.0</v>
-      </c>
-      <c r="B92" s="5">
+        <v>191.0</v>
+      </c>
+      <c r="B92" s="6">
         <v>67.0</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="7">
         <v>160.0</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="7">
         <v>200.0</v>
       </c>
-      <c r="E92" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" s="6">
+      <c r="E92" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="7">
         <v>778811.0</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H92" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="3">
-        <v>92.0</v>
-      </c>
-      <c r="B93" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C93" s="6">
+        <v>192.0</v>
+      </c>
+      <c r="B93" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C93" s="7">
         <v>240.0</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="7">
         <v>300.0</v>
       </c>
-      <c r="E93" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="6">
+      <c r="E93" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="7">
         <v>778812.0</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H93" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="3">
-        <v>93.0</v>
-      </c>
-      <c r="B94" s="5">
+        <v>193.0</v>
+      </c>
+      <c r="B94" s="6">
         <v>133.0</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="7">
         <v>320.0</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="7">
         <v>400.0</v>
       </c>
-      <c r="E94" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="6">
+      <c r="E94" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="7">
         <v>778813.0</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H94" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="3">
-        <v>94.0</v>
-      </c>
-      <c r="B95" s="5">
+        <v>194.0</v>
+      </c>
+      <c r="B95" s="6">
         <v>167.0</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="7">
         <v>400.0</v>
       </c>
-      <c r="D95" s="6">
+      <c r="D95" s="7">
         <v>500.0</v>
       </c>
-      <c r="E95" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="6">
+      <c r="E95" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H95" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="3">
-        <v>95.0</v>
-      </c>
-      <c r="B96" s="5">
+        <v>195.0</v>
+      </c>
+      <c r="B96" s="6">
         <v>200.0</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="7">
         <v>480.0</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="7">
         <v>600.0</v>
       </c>
-      <c r="E96" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F96" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="6">
+      <c r="E96" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H96" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="3">
-        <v>96.0</v>
-      </c>
-      <c r="B97" s="5">
+        <v>196.0</v>
+      </c>
+      <c r="B97" s="6">
         <v>67.0</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="7">
         <v>160.0</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="7">
         <v>200.0</v>
       </c>
-      <c r="E97" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" s="6">
+      <c r="E97" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H97" s="6">
+      <c r="H97" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="3">
-        <v>97.0</v>
-      </c>
-      <c r="B98" s="5">
+        <v>197.0</v>
+      </c>
+      <c r="B98" s="6">
         <v>67.0</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="7">
         <v>160.0</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="7">
         <v>200.0</v>
       </c>
-      <c r="E98" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="6">
+      <c r="E98" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H98" s="6">
+      <c r="H98" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="3">
-        <v>98.0</v>
-      </c>
-      <c r="B99" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C99" s="6">
+        <v>198.0</v>
+      </c>
+      <c r="B99" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C99" s="7">
         <v>240.0</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="7">
         <v>300.0</v>
       </c>
-      <c r="E99" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F99" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" s="6">
+      <c r="E99" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H99" s="6">
+      <c r="H99" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="3">
-        <v>99.0</v>
-      </c>
-      <c r="B100" s="5">
+        <v>199.0</v>
+      </c>
+      <c r="B100" s="6">
         <v>133.0</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="7">
         <v>320.0</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="7">
         <v>400.0</v>
       </c>
-      <c r="E100" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="6">
+      <c r="E100" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="3">
-        <v>100.0</v>
-      </c>
-      <c r="B101" s="5">
+        <v>200.0</v>
+      </c>
+      <c r="B101" s="6">
         <v>167.0</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="7">
         <v>400.0</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="7">
         <v>500.0</v>
       </c>
-      <c r="E101" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="6">
+      <c r="E101" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="7">
         <v>778804.0</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H101" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="3">
-        <v>101.0</v>
-      </c>
-      <c r="B102" s="5">
+        <v>201.0</v>
+      </c>
+      <c r="B102" s="6">
         <v>200.0</v>
       </c>
-      <c r="C102" s="6">
+      <c r="C102" s="7">
         <v>480.0</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="7">
         <v>600.0</v>
       </c>
-      <c r="E102" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F102" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="6">
+      <c r="E102" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="7">
         <v>778805.0</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="3">
-        <v>102.0</v>
-      </c>
-      <c r="B103" s="5">
+        <v>202.0</v>
+      </c>
+      <c r="B103" s="6">
         <v>67.0</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="7">
         <v>160.0</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="7">
         <v>200.0</v>
       </c>
-      <c r="E103" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F103" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="6">
+      <c r="E103" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="7">
         <v>778806.0</v>
       </c>
-      <c r="H103" s="6">
+      <c r="H103" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="3">
-        <v>103.0</v>
-      </c>
-      <c r="B104" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C104" s="6">
+        <v>203.0</v>
+      </c>
+      <c r="B104" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C104" s="7">
         <v>240.0</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="7">
         <v>300.0</v>
       </c>
-      <c r="E104" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="6">
+      <c r="E104" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="7">
         <v>778807.0</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="3">
-        <v>104.0</v>
-      </c>
-      <c r="B105" s="5">
+        <v>204.0</v>
+      </c>
+      <c r="B105" s="6">
         <v>133.0</v>
       </c>
-      <c r="C105" s="6">
+      <c r="C105" s="7">
         <v>320.0</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="7">
         <v>400.0</v>
       </c>
-      <c r="E105" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="6">
+      <c r="E105" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="7">
         <v>778808.0</v>
       </c>
-      <c r="H105" s="6">
+      <c r="H105" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="3">
-        <v>105.0</v>
-      </c>
-      <c r="B106" s="5">
+        <v>205.0</v>
+      </c>
+      <c r="B106" s="6">
         <v>167.0</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C106" s="7">
         <v>400.0</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="7">
         <v>500.0</v>
       </c>
-      <c r="E106" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="6">
+      <c r="E106" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="7">
         <v>778809.0</v>
       </c>
-      <c r="H106" s="6">
+      <c r="H106" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="3">
-        <v>106.0</v>
-      </c>
-      <c r="B107" s="5">
+        <v>206.0</v>
+      </c>
+      <c r="B107" s="6">
         <v>200.0</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C107" s="7">
         <v>480.0</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="7">
         <v>600.0</v>
       </c>
-      <c r="E107" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="6">
+      <c r="E107" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="7">
         <v>778810.0</v>
       </c>
-      <c r="H107" s="6">
+      <c r="H107" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="3">
-        <v>107.0</v>
-      </c>
-      <c r="B108" s="5">
+        <v>207.0</v>
+      </c>
+      <c r="B108" s="6">
         <v>67.0</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C108" s="7">
         <v>160.0</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="7">
         <v>200.0</v>
       </c>
-      <c r="E108" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="6">
+      <c r="E108" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="7">
         <v>778811.0</v>
       </c>
-      <c r="H108" s="6">
+      <c r="H108" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="3">
-        <v>108.0</v>
-      </c>
-      <c r="B109" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C109" s="6">
+        <v>208.0</v>
+      </c>
+      <c r="B109" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C109" s="7">
         <v>240.0</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="7">
         <v>300.0</v>
       </c>
-      <c r="E109" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F109" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="6">
+      <c r="E109" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="7">
         <v>778812.0</v>
       </c>
-      <c r="H109" s="6">
+      <c r="H109" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="3">
-        <v>109.0</v>
-      </c>
-      <c r="B110" s="5">
+        <v>209.0</v>
+      </c>
+      <c r="B110" s="6">
         <v>133.0</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="7">
         <v>320.0</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="7">
         <v>400.0</v>
       </c>
-      <c r="E110" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="6">
+      <c r="E110" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="7">
         <v>778813.0</v>
       </c>
-      <c r="H110" s="6">
+      <c r="H110" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="3">
-        <v>110.0</v>
-      </c>
-      <c r="B111" s="5">
+        <v>210.0</v>
+      </c>
+      <c r="B111" s="6">
         <v>167.0</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="7">
         <v>400.0</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="7">
         <v>500.0</v>
       </c>
-      <c r="E111" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111" s="6">
+      <c r="E111" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H111" s="6">
+      <c r="H111" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="3">
-        <v>111.0</v>
-      </c>
-      <c r="B112" s="5">
+        <v>211.0</v>
+      </c>
+      <c r="B112" s="6">
         <v>200.0</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="7">
         <v>480.0</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="7">
         <v>600.0</v>
       </c>
-      <c r="E112" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" s="6">
+      <c r="E112" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H112" s="6">
+      <c r="H112" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="3">
-        <v>112.0</v>
-      </c>
-      <c r="B113" s="5">
+        <v>212.0</v>
+      </c>
+      <c r="B113" s="6">
         <v>67.0</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="7">
         <v>160.0</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="7">
         <v>200.0</v>
       </c>
-      <c r="E113" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" s="6">
+      <c r="E113" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H113" s="6">
+      <c r="H113" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="3">
-        <v>113.0</v>
-      </c>
-      <c r="B114" s="5">
+        <v>213.0</v>
+      </c>
+      <c r="B114" s="6">
         <v>67.0</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="7">
         <v>160.0</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="7">
         <v>200.0</v>
       </c>
-      <c r="E114" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="6">
+      <c r="E114" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H114" s="6">
+      <c r="H114" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="3">
-        <v>114.0</v>
-      </c>
-      <c r="B115" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C115" s="6">
+        <v>214.0</v>
+      </c>
+      <c r="B115" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C115" s="7">
         <v>240.0</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="7">
         <v>300.0</v>
       </c>
-      <c r="E115" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="6">
+      <c r="E115" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H115" s="6">
+      <c r="H115" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="3">
-        <v>115.0</v>
-      </c>
-      <c r="B116" s="5">
+        <v>215.0</v>
+      </c>
+      <c r="B116" s="6">
         <v>133.0</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="7">
         <v>320.0</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="7">
         <v>400.0</v>
       </c>
-      <c r="E116" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" s="6">
+      <c r="E116" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H116" s="6">
+      <c r="H116" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="3">
-        <v>116.0</v>
-      </c>
-      <c r="B117" s="5">
+        <v>216.0</v>
+      </c>
+      <c r="B117" s="6">
         <v>167.0</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="7">
         <v>400.0</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="7">
         <v>500.0</v>
       </c>
-      <c r="E117" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" s="6">
+      <c r="E117" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="7">
         <v>778804.0</v>
       </c>
-      <c r="H117" s="6">
+      <c r="H117" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="3">
-        <v>117.0</v>
-      </c>
-      <c r="B118" s="5">
+        <v>217.0</v>
+      </c>
+      <c r="B118" s="6">
         <v>200.0</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="7">
         <v>480.0</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="7">
         <v>600.0</v>
       </c>
-      <c r="E118" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="6">
+      <c r="E118" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="7">
         <v>778805.0</v>
       </c>
-      <c r="H118" s="6">
+      <c r="H118" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="3">
-        <v>118.0</v>
-      </c>
-      <c r="B119" s="5">
+        <v>218.0</v>
+      </c>
+      <c r="B119" s="6">
         <v>67.0</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="7">
         <v>160.0</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="7">
         <v>200.0</v>
       </c>
-      <c r="E119" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" s="6">
+      <c r="E119" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="7">
         <v>778806.0</v>
       </c>
-      <c r="H119" s="6">
+      <c r="H119" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="3">
-        <v>119.0</v>
-      </c>
-      <c r="B120" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C120" s="6">
+        <v>219.0</v>
+      </c>
+      <c r="B120" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C120" s="7">
         <v>240.0</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="7">
         <v>300.0</v>
       </c>
-      <c r="E120" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F120" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="6">
+      <c r="E120" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="7">
         <v>778807.0</v>
       </c>
-      <c r="H120" s="6">
+      <c r="H120" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="3">
-        <v>120.0</v>
-      </c>
-      <c r="B121" s="5">
+        <v>220.0</v>
+      </c>
+      <c r="B121" s="6">
         <v>133.0</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="7">
         <v>320.0</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="7">
         <v>400.0</v>
       </c>
-      <c r="E121" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="6">
+      <c r="E121" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="7">
         <v>778808.0</v>
       </c>
-      <c r="H121" s="6">
+      <c r="H121" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="3">
-        <v>121.0</v>
-      </c>
-      <c r="B122" s="5">
+        <v>221.0</v>
+      </c>
+      <c r="B122" s="6">
         <v>167.0</v>
       </c>
-      <c r="C122" s="6">
+      <c r="C122" s="7">
         <v>400.0</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="7">
         <v>500.0</v>
       </c>
-      <c r="E122" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="6">
+      <c r="E122" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="7">
         <v>778809.0</v>
       </c>
-      <c r="H122" s="6">
+      <c r="H122" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="3">
-        <v>122.0</v>
-      </c>
-      <c r="B123" s="5">
+        <v>222.0</v>
+      </c>
+      <c r="B123" s="6">
         <v>200.0</v>
       </c>
-      <c r="C123" s="6">
+      <c r="C123" s="7">
         <v>480.0</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="7">
         <v>600.0</v>
       </c>
-      <c r="E123" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" s="6">
+      <c r="E123" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="7">
         <v>778810.0</v>
       </c>
-      <c r="H123" s="6">
+      <c r="H123" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="3">
-        <v>123.0</v>
-      </c>
-      <c r="B124" s="5">
+        <v>223.0</v>
+      </c>
+      <c r="B124" s="6">
         <v>67.0</v>
       </c>
-      <c r="C124" s="6">
+      <c r="C124" s="7">
         <v>160.0</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="7">
         <v>200.0</v>
       </c>
-      <c r="E124" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="6">
+      <c r="E124" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="7">
         <v>778811.0</v>
       </c>
-      <c r="H124" s="6">
+      <c r="H124" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="3">
-        <v>124.0</v>
-      </c>
-      <c r="B125" s="5">
-        <v>100.0</v>
-      </c>
-      <c r="C125" s="6">
+        <v>224.0</v>
+      </c>
+      <c r="B125" s="6">
+        <v>100.0</v>
+      </c>
+      <c r="C125" s="7">
         <v>240.0</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="7">
         <v>300.0</v>
       </c>
-      <c r="E125" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="6">
+      <c r="E125" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G125" s="7">
         <v>778812.0</v>
       </c>
-      <c r="H125" s="6">
+      <c r="H125" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="3">
-        <v>125.0</v>
-      </c>
-      <c r="B126" s="5">
+        <v>225.0</v>
+      </c>
+      <c r="B126" s="6">
         <v>133.0</v>
       </c>
-      <c r="C126" s="6">
+      <c r="C126" s="7">
         <v>320.0</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="7">
         <v>400.0</v>
       </c>
-      <c r="E126" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="6">
+      <c r="E126" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" s="7">
         <v>778813.0</v>
       </c>
-      <c r="H126" s="6">
+      <c r="H126" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="3">
-        <v>126.0</v>
-      </c>
-      <c r="B127" s="5">
+        <v>226.0</v>
+      </c>
+      <c r="B127" s="6">
         <v>167.0</v>
       </c>
-      <c r="C127" s="6">
+      <c r="C127" s="7">
         <v>400.0</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="7">
         <v>500.0</v>
       </c>
-      <c r="E127" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" s="6">
+      <c r="E127" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="7">
         <v>778801.0</v>
       </c>
-      <c r="H127" s="6">
+      <c r="H127" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="3">
-        <v>127.0</v>
-      </c>
-      <c r="B128" s="5">
+        <v>227.0</v>
+      </c>
+      <c r="B128" s="6">
         <v>200.0</v>
       </c>
-      <c r="C128" s="6">
+      <c r="C128" s="7">
         <v>480.0</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="7">
         <v>600.0</v>
       </c>
-      <c r="E128" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F128" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" s="6">
+      <c r="E128" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="7">
         <v>778802.0</v>
       </c>
-      <c r="H128" s="6">
+      <c r="H128" s="7">
         <v>4.0</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="3">
-        <v>128.0</v>
-      </c>
-      <c r="B129" s="5">
+        <v>228.0</v>
+      </c>
+      <c r="B129" s="6">
         <v>67.0</v>
       </c>
-      <c r="C129" s="6">
+      <c r="C129" s="7">
         <v>160.0</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="7">
         <v>200.0</v>
       </c>
-      <c r="E129" s="6">
-        <v>100.0</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129" s="6">
+      <c r="E129" s="7">
+        <v>100.0</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G129" s="7">
         <v>778803.0</v>
       </c>
-      <c r="H129" s="6">
+      <c r="H129" s="7">
         <v>4.0</v>
       </c>
     </row>

--- a/Web/db_data/compartments.xlsx
+++ b/Web/db_data/compartments.xlsx
@@ -187,8 +187,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -224,7 +224,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
-        <v>101</v>
+        <v>1101</v>
       </c>
       <c r="B2" s="4" t="n">
         <f aca="false">SUM(D2/3)</f>
@@ -252,7 +252,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="B3" s="4" t="n">
         <f aca="false">SUM(D3/3)</f>
@@ -280,7 +280,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="n">
-        <v>103</v>
+        <v>1103</v>
       </c>
       <c r="B4" s="4" t="n">
         <f aca="false">SUM(D4/3)</f>
@@ -308,7 +308,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
-        <v>104</v>
+        <v>1104</v>
       </c>
       <c r="B5" s="4" t="n">
         <f aca="false">SUM(D5/3)</f>
@@ -336,7 +336,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
-        <v>105</v>
+        <v>1105</v>
       </c>
       <c r="B6" s="4" t="n">
         <f aca="false">SUM(D6/3)</f>
@@ -364,7 +364,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
-        <v>106</v>
+        <v>1106</v>
       </c>
       <c r="B7" s="4" t="n">
         <f aca="false">SUM(D7/3)</f>
@@ -392,7 +392,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
-        <v>107</v>
+        <v>1107</v>
       </c>
       <c r="B8" s="4" t="n">
         <f aca="false">SUM(D8/3)</f>
@@ -420,7 +420,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>108</v>
+        <v>1108</v>
       </c>
       <c r="B9" s="4" t="n">
         <f aca="false">SUM(D9/3)</f>
@@ -448,7 +448,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>109</v>
+        <v>1109</v>
       </c>
       <c r="B10" s="4" t="n">
         <f aca="false">SUM(D10/3)</f>
@@ -476,7 +476,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="n">
-        <v>110</v>
+        <v>1110</v>
       </c>
       <c r="B11" s="4" t="n">
         <f aca="false">SUM(D11/3)</f>
@@ -504,7 +504,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
-        <v>111</v>
+        <v>1111</v>
       </c>
       <c r="B12" s="4" t="n">
         <f aca="false">SUM(D12/3)</f>
@@ -532,7 +532,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
-        <v>112</v>
+        <v>1112</v>
       </c>
       <c r="B13" s="4" t="n">
         <f aca="false">SUM(D13/3)</f>
@@ -560,7 +560,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
-        <v>113</v>
+        <v>1113</v>
       </c>
       <c r="B14" s="4" t="n">
         <f aca="false">SUM(D14/3)</f>
@@ -588,7 +588,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="n">
-        <v>114</v>
+        <v>1114</v>
       </c>
       <c r="B15" s="4" t="n">
         <f aca="false">SUM(D15/3)</f>
@@ -616,7 +616,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
-        <v>115</v>
+        <v>1115</v>
       </c>
       <c r="B16" s="4" t="n">
         <f aca="false">SUM(D16/3)</f>
@@ -644,7 +644,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
-        <v>116</v>
+        <v>1116</v>
       </c>
       <c r="B17" s="4" t="n">
         <f aca="false">SUM(D17/3)</f>
@@ -672,7 +672,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
-        <v>117</v>
+        <v>1117</v>
       </c>
       <c r="B18" s="4" t="n">
         <f aca="false">SUM(D18/3)</f>
@@ -700,7 +700,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="n">
-        <v>118</v>
+        <v>1118</v>
       </c>
       <c r="B19" s="4" t="n">
         <f aca="false">SUM(D19/3)</f>
@@ -728,7 +728,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
-        <v>119</v>
+        <v>1119</v>
       </c>
       <c r="B20" s="4" t="n">
         <f aca="false">SUM(D20/3)</f>
@@ -756,7 +756,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
-        <v>120</v>
+        <v>1120</v>
       </c>
       <c r="B21" s="4" t="n">
         <f aca="false">SUM(D21/3)</f>
@@ -784,7 +784,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
-        <v>121</v>
+        <v>1121</v>
       </c>
       <c r="B22" s="4" t="n">
         <f aca="false">SUM(D22/3)</f>
@@ -812,7 +812,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
-        <v>122</v>
+        <v>1122</v>
       </c>
       <c r="B23" s="4" t="n">
         <f aca="false">SUM(D23/3)</f>
@@ -840,7 +840,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
-        <v>123</v>
+        <v>1123</v>
       </c>
       <c r="B24" s="4" t="n">
         <f aca="false">SUM(D24/3)</f>
@@ -868,7 +868,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
-        <v>124</v>
+        <v>1124</v>
       </c>
       <c r="B25" s="4" t="n">
         <f aca="false">SUM(D25/3)</f>
@@ -896,7 +896,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
-        <v>125</v>
+        <v>1125</v>
       </c>
       <c r="B26" s="4" t="n">
         <f aca="false">SUM(D26/3)</f>
@@ -924,7 +924,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
-        <v>126</v>
+        <v>1126</v>
       </c>
       <c r="B27" s="4" t="n">
         <f aca="false">SUM(D27/3)</f>
@@ -952,7 +952,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
-        <v>146</v>
+        <v>1127</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>67</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
-        <v>147</v>
+        <v>1128</v>
       </c>
       <c r="B29" s="4" t="n">
         <v>100</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
-        <v>148</v>
+        <v>1129</v>
       </c>
       <c r="B30" s="4" t="n">
         <v>133</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
-        <v>149</v>
+        <v>1130</v>
       </c>
       <c r="B31" s="4" t="n">
         <v>167</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
-        <v>150</v>
+        <v>1131</v>
       </c>
       <c r="B32" s="4" t="n">
         <v>200</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
-        <v>151</v>
+        <v>1132</v>
       </c>
       <c r="B33" s="4" t="n">
         <v>67</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
-        <v>152</v>
+        <v>1133</v>
       </c>
       <c r="B34" s="4" t="n">
         <v>100</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
-        <v>153</v>
+        <v>1134</v>
       </c>
       <c r="B35" s="4" t="n">
         <v>133</v>
@@ -1160,7 +1160,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="n">
-        <v>154</v>
+        <v>1135</v>
       </c>
       <c r="B36" s="4" t="n">
         <v>167</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="n">
-        <v>155</v>
+        <v>1136</v>
       </c>
       <c r="B37" s="4" t="n">
         <v>200</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="n">
-        <v>156</v>
+        <v>1137</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>67</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="n">
-        <v>157</v>
+        <v>1138</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>100</v>
@@ -1264,7 +1264,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
-        <v>158</v>
+        <v>1139</v>
       </c>
       <c r="B40" s="4" t="n">
         <v>133</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="n">
-        <v>159</v>
+        <v>1140</v>
       </c>
       <c r="B41" s="4" t="n">
         <v>67</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="n">
-        <v>160</v>
+        <v>1141</v>
       </c>
       <c r="B42" s="4" t="n">
         <v>100</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="n">
-        <v>161</v>
+        <v>1142</v>
       </c>
       <c r="B43" s="4" t="n">
         <v>133</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="n">
-        <v>162</v>
+        <v>1143</v>
       </c>
       <c r="B44" s="4" t="n">
         <v>167</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="n">
-        <v>163</v>
+        <v>1144</v>
       </c>
       <c r="B45" s="4" t="n">
         <v>200</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="n">
-        <v>164</v>
+        <v>1145</v>
       </c>
       <c r="B46" s="4" t="n">
         <v>67</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="n">
-        <v>165</v>
+        <v>1146</v>
       </c>
       <c r="B47" s="4" t="n">
         <v>100</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="n">
-        <v>166</v>
+        <v>1147</v>
       </c>
       <c r="B48" s="4" t="n">
         <v>133</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="n">
-        <v>167</v>
+        <v>1148</v>
       </c>
       <c r="B49" s="4" t="n">
         <v>167</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="3" t="n">
-        <v>168</v>
+        <v>1149</v>
       </c>
       <c r="B50" s="4" t="n">
         <v>200</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="3" t="n">
-        <v>169</v>
+        <v>1150</v>
       </c>
       <c r="B51" s="4" t="n">
         <v>67</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="n">
-        <v>170</v>
+        <v>1151</v>
       </c>
       <c r="B52" s="4" t="n">
         <v>100</v>
@@ -1602,7 +1602,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="3" t="n">
-        <v>171</v>
+        <v>1152</v>
       </c>
       <c r="B53" s="4" t="n">
         <v>133</v>

--- a/Web/db_data/compartments.xlsx
+++ b/Web/db_data/compartments.xlsx
@@ -187,8 +187,8 @@
   </sheetPr>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A45" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H41" activeCellId="0" sqref="H41:H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +247,7 @@
         <v>778801</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -275,7 +275,7 @@
         <v>778802</v>
       </c>
       <c r="H3" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -303,7 +303,7 @@
         <v>778803</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -331,7 +331,7 @@
         <v>778804</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -359,7 +359,7 @@
         <v>778805</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -387,7 +387,7 @@
         <v>778806</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -415,7 +415,7 @@
         <v>778807</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -443,7 +443,7 @@
         <v>778808</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -471,7 +471,7 @@
         <v>778809</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -499,7 +499,7 @@
         <v>778810</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -527,7 +527,7 @@
         <v>778811</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -555,7 +555,7 @@
         <v>778812</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -583,7 +583,7 @@
         <v>778813</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -611,7 +611,7 @@
         <v>778801</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -639,7 +639,7 @@
         <v>778802</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -667,7 +667,7 @@
         <v>778803</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -695,7 +695,7 @@
         <v>778804</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -723,7 +723,7 @@
         <v>778805</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -751,7 +751,7 @@
         <v>778806</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -779,7 +779,7 @@
         <v>778807</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -807,7 +807,7 @@
         <v>778808</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -835,7 +835,7 @@
         <v>778809</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -863,7 +863,7 @@
         <v>778810</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -891,7 +891,7 @@
         <v>778811</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -919,7 +919,7 @@
         <v>778812</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -947,7 +947,7 @@
         <v>778813</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -973,7 +973,7 @@
         <v>778801</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -999,7 +999,7 @@
         <v>778802</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1025,7 +1025,7 @@
         <v>778803</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1051,7 +1051,7 @@
         <v>778804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1077,7 +1077,7 @@
         <v>778805</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1103,7 +1103,7 @@
         <v>778806</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1129,7 +1129,7 @@
         <v>778807</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1155,7 +1155,7 @@
         <v>778808</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1181,7 +1181,7 @@
         <v>778809</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1207,7 +1207,7 @@
         <v>778810</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1233,7 +1233,7 @@
         <v>778811</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1259,7 +1259,7 @@
         <v>778812</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1285,7 +1285,7 @@
         <v>778813</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1311,7 +1311,7 @@
         <v>778801</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1337,7 +1337,7 @@
         <v>778802</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1363,7 +1363,7 @@
         <v>778803</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1389,7 +1389,7 @@
         <v>778804</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1415,7 +1415,7 @@
         <v>778805</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1441,7 +1441,7 @@
         <v>778806</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1467,7 +1467,7 @@
         <v>778807</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1493,7 +1493,7 @@
         <v>778808</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1519,7 +1519,7 @@
         <v>778809</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1545,7 +1545,7 @@
         <v>778810</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1571,7 +1571,7 @@
         <v>778811</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1597,7 +1597,7 @@
         <v>778812</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1623,7 +1623,7 @@
         <v>778813</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>4</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
